--- a/output3.xlsx
+++ b/output3.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.21052705</v>
+        <v>4.178484862</v>
       </c>
       <c r="B2" t="n">
-        <v>17.00251210124755</v>
+        <v>5.284154363214922</v>
       </c>
       <c r="C2" t="n">
-        <v>5.418541998752447</v>
+        <v>3.072815360785079</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,69 +471,69 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.948659378</v>
+        <v>3.253302451</v>
       </c>
       <c r="B3" t="n">
-        <v>35.12018926124757</v>
+        <v>5.403593167714922</v>
       </c>
       <c r="C3" t="n">
-        <v>23.53621915875246</v>
+        <v>3.192254165285078</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.967696944</v>
+        <v>2.550621089</v>
       </c>
       <c r="B4" t="n">
-        <v>25.54621087354264</v>
+        <v>3.947507686464922</v>
       </c>
       <c r="C4" t="n">
-        <v>13.96224077104754</v>
+        <v>1.736168684035078</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.683377113</v>
+        <v>2.316362988</v>
       </c>
       <c r="B5" t="n">
-        <v>21.11841659532615</v>
+        <v>3.523737366102018</v>
       </c>
       <c r="C5" t="n">
-        <v>9.534446492831041</v>
+        <v>1.312398363672175</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.577738762</v>
+        <v>2.52768641</v>
       </c>
       <c r="B6" t="n">
-        <v>18.51587828556931</v>
+        <v>3.61157273878864</v>
       </c>
       <c r="C6" t="n">
-        <v>6.931908183074201</v>
+        <v>1.400233736358796</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.018213863</v>
+        <v>2.985252252</v>
       </c>
       <c r="B7" t="n">
-        <v>16.69826634738035</v>
+        <v>3.9951747029582</v>
       </c>
       <c r="C7" t="n">
-        <v>5.114296244885246</v>
+        <v>1.783835700528356</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.599714306999999</v>
+        <v>3.549408244</v>
       </c>
       <c r="B8" t="n">
-        <v>16.11453577603878</v>
+        <v>4.52313092596185</v>
       </c>
       <c r="C8" t="n">
-        <v>4.530565673543673</v>
+        <v>2.311791923532006</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.459801792</v>
+        <v>3.690254995</v>
       </c>
       <c r="B9" t="n">
-        <v>13.86471500600026</v>
+        <v>4.612645187152016</v>
       </c>
       <c r="C9" t="n">
-        <v>5.885079248479839</v>
+        <v>2.658752961630586</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,83 +569,83 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.324111409</v>
+        <v>2.776038904</v>
       </c>
       <c r="B10" t="n">
-        <v>11.58455234413139</v>
+        <v>4.05837903645272</v>
       </c>
       <c r="C10" t="n">
-        <v>4.214694067188419</v>
+        <v>1.837559318526727</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.310740262</v>
+        <v>3.033211337</v>
       </c>
       <c r="B11" t="n">
-        <v>9.171083136306342</v>
+        <v>4.187328644133695</v>
       </c>
       <c r="C11" t="n">
-        <v>2.052735019930063</v>
+        <v>1.844997235892608</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.708944978</v>
+        <v>4.038770885</v>
       </c>
       <c r="B12" t="n">
-        <v>6.78013919462245</v>
+        <v>4.870171572992907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3649797441851228</v>
+        <v>2.489952638852615</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.698270417</v>
+        <v>2.729347375</v>
       </c>
       <c r="B13" t="n">
-        <v>5.108041016740188</v>
+        <v>4.655375973866618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.202687626247533</v>
+        <v>2.296400932447098</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.887294819</v>
+        <v>1.886488952</v>
       </c>
       <c r="B14" t="n">
-        <v>3.74324645307914</v>
+        <v>4.296541262252969</v>
       </c>
       <c r="C14" t="n">
-        <v>1.242381806313157</v>
+        <v>1.982491334027944</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.285311791</v>
+        <v>2.9060845</v>
       </c>
       <c r="B15" t="n">
-        <v>2.993115653755859</v>
+        <v>4.252254591404878</v>
       </c>
       <c r="C15" t="n">
-        <v>1.905693317484445</v>
+        <v>1.929109792199788</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.828480969</v>
+        <v>3.357082625</v>
       </c>
       <c r="B16" t="n">
-        <v>2.854058439254239</v>
+        <v>4.204148932435819</v>
       </c>
       <c r="C16" t="n">
-        <v>1.787323724767175</v>
+        <v>2.087661602947886</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -667,27 +667,27 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.743085592</v>
+        <v>3.38999441</v>
       </c>
       <c r="B17" t="n">
-        <v>2.527486182423298</v>
+        <v>4.223950651204722</v>
       </c>
       <c r="C17" t="n">
-        <v>1.464577083419573</v>
+        <v>2.16832333587488</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.686324488</v>
+        <v>3.630431859</v>
       </c>
       <c r="B18" t="n">
-        <v>2.463591202619094</v>
+        <v>4.308163540565149</v>
       </c>
       <c r="C18" t="n">
-        <v>1.4017353481411</v>
+        <v>2.261830287752411</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.553274015</v>
+        <v>3.853844409</v>
       </c>
       <c r="B19" t="n">
-        <v>2.580205241451129</v>
+        <v>4.432058914263232</v>
       </c>
       <c r="C19" t="n">
-        <v>1.537919614570529</v>
+        <v>2.36964808539932</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.337645109</v>
+        <v>3.933884264</v>
       </c>
       <c r="B20" t="n">
-        <v>2.62297580665723</v>
+        <v>4.551460667295129</v>
       </c>
       <c r="C20" t="n">
-        <v>1.608211523735933</v>
+        <v>2.46657628116059</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.362063194</v>
+        <v>3.920675883</v>
       </c>
       <c r="B21" t="n">
-        <v>2.688636252691455</v>
+        <v>4.621506357421272</v>
       </c>
       <c r="C21" t="n">
-        <v>1.642288786718532</v>
+        <v>2.563114132010349</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.589020926</v>
+        <v>3.828789303</v>
       </c>
       <c r="B22" t="n">
-        <v>2.775839825515432</v>
+        <v>4.655127087531996</v>
       </c>
       <c r="C22" t="n">
-        <v>1.72608577823599</v>
+        <v>2.624965600823149</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.442400073</v>
+        <v>2.670892149</v>
       </c>
       <c r="B23" t="n">
-        <v>2.807498406590145</v>
+        <v>4.425793166114291</v>
       </c>
       <c r="C23" t="n">
-        <v>1.771571328832484</v>
+        <v>2.463756142660707</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,27 +765,27 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.308250161</v>
+        <v>1.72570721</v>
       </c>
       <c r="B24" t="n">
-        <v>2.806673027711232</v>
+        <v>4.045803566960181</v>
       </c>
       <c r="C24" t="n">
-        <v>1.779927277665809</v>
+        <v>2.152035628239556</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.484230445</v>
+        <v>2.438396714</v>
       </c>
       <c r="B25" t="n">
-        <v>2.836514314307057</v>
+        <v>3.901652331487368</v>
       </c>
       <c r="C25" t="n">
-        <v>1.82682047635597</v>
+        <v>2.030724097804248</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.467916249</v>
+        <v>3.140722918</v>
       </c>
       <c r="B26" t="n">
-        <v>2.853108507661604</v>
+        <v>3.940831590471613</v>
       </c>
       <c r="C26" t="n">
-        <v>1.864932498708385</v>
+        <v>2.061623469743952</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.265717391</v>
+        <v>3.833031266</v>
       </c>
       <c r="B27" t="n">
-        <v>2.84511922749261</v>
+        <v>4.071999866808596</v>
       </c>
       <c r="C27" t="n">
-        <v>1.835487395521932</v>
+        <v>2.264185325196614</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.345980347</v>
+        <v>3.836193073</v>
       </c>
       <c r="B28" t="n">
-        <v>2.891985903818606</v>
+        <v>4.043163278909941</v>
       </c>
       <c r="C28" t="n">
-        <v>1.790897037192226</v>
+        <v>2.560909817102061</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.481939348</v>
+        <v>3.645816752</v>
       </c>
       <c r="B29" t="n">
-        <v>2.927656251974124</v>
+        <v>4.015391129880326</v>
       </c>
       <c r="C29" t="n">
-        <v>1.811534755675521</v>
+        <v>2.726460550269683</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.607069332</v>
+        <v>3.161573892</v>
       </c>
       <c r="B30" t="n">
-        <v>2.975460311184782</v>
+        <v>3.940997742654524</v>
       </c>
       <c r="C30" t="n">
-        <v>1.858867444722279</v>
+        <v>2.716983374855972</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.566738931</v>
+        <v>3.206028144</v>
       </c>
       <c r="B31" t="n">
-        <v>3.006899295865952</v>
+        <v>3.902137552503064</v>
       </c>
       <c r="C31" t="n">
-        <v>1.887332639041401</v>
+        <v>2.706597635597543</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.343220247</v>
+        <v>3.835825629</v>
       </c>
       <c r="B32" t="n">
-        <v>2.988643754666108</v>
+        <v>3.977181819301161</v>
       </c>
       <c r="C32" t="n">
-        <v>1.863988693923993</v>
+        <v>2.84434732370484</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.829974148</v>
+        <v>3.359344451</v>
       </c>
       <c r="B33" t="n">
-        <v>2.86968610047714</v>
+        <v>3.928493380759435</v>
       </c>
       <c r="C33" t="n">
-        <v>1.744220379396484</v>
+        <v>2.872451405437701</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -905,27 +905,27 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.403278055</v>
+        <v>2.754367851</v>
       </c>
       <c r="B34" t="n">
-        <v>2.697707502710303</v>
+        <v>3.790491685801537</v>
       </c>
       <c r="C34" t="n">
-        <v>1.554499649003373</v>
+        <v>2.751847372703207</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.169038258</v>
+        <v>3.293084486</v>
       </c>
       <c r="B35" t="n">
-        <v>2.719036413510783</v>
+        <v>3.79834015405278</v>
       </c>
       <c r="C35" t="n">
-        <v>1.550353323666069</v>
+        <v>2.752769334287272</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.562983485</v>
+        <v>3.223004948</v>
       </c>
       <c r="B36" t="n">
-        <v>2.833876108995734</v>
+        <v>3.794207489519887</v>
       </c>
       <c r="C36" t="n">
-        <v>1.606898596748395</v>
+        <v>2.735873550199989</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -947,27 +947,27 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.485009706</v>
+        <v>2.380222573</v>
       </c>
       <c r="B37" t="n">
-        <v>2.907223379729341</v>
+        <v>3.622079730048203</v>
       </c>
       <c r="C37" t="n">
-        <v>1.639434628362096</v>
+        <v>2.55395923770657</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.763526463</v>
+        <v>2.891974172</v>
       </c>
       <c r="B38" t="n">
-        <v>3.00450328662549</v>
+        <v>3.584632155062801</v>
       </c>
       <c r="C38" t="n">
-        <v>1.738284623281312</v>
+        <v>2.512968324145132</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.077937545</v>
+        <v>3.685074052</v>
       </c>
       <c r="B39" t="n">
-        <v>3.131975145613946</v>
+        <v>3.717244628216871</v>
       </c>
       <c r="C39" t="n">
-        <v>1.893488909849998</v>
+        <v>2.634918246490535</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.582199132</v>
+        <v>2.96550121</v>
       </c>
       <c r="B40" t="n">
-        <v>3.073721920504842</v>
+        <v>3.753934003320051</v>
       </c>
       <c r="C40" t="n">
-        <v>1.979533594314541</v>
+        <v>2.513982782663415</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.403995084</v>
+        <v>2.690266547</v>
       </c>
       <c r="B41" t="n">
-        <v>3.085168268708578</v>
+        <v>3.711383096685643</v>
       </c>
       <c r="C41" t="n">
-        <v>1.919027655608813</v>
+        <v>2.379033357060042</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.688861988</v>
+        <v>3.063025064</v>
       </c>
       <c r="B42" t="n">
-        <v>3.169369884591095</v>
+        <v>3.729196760685157</v>
       </c>
       <c r="C42" t="n">
-        <v>1.909539594970761</v>
+        <v>2.368347185836426</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.465971653</v>
+        <v>2.880026248</v>
       </c>
       <c r="B43" t="n">
-        <v>3.179353280842851</v>
+        <v>3.697202266985331</v>
       </c>
       <c r="C43" t="n">
-        <v>1.870160463294027</v>
+        <v>2.332837646823929</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.114452035</v>
+        <v>2.516034483</v>
       </c>
       <c r="B44" t="n">
-        <v>3.097532278186819</v>
+        <v>3.602593985714972</v>
       </c>
       <c r="C44" t="n">
-        <v>1.787848360802381</v>
+        <v>2.227838153931267</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.888600419</v>
+        <v>2.633651612</v>
       </c>
       <c r="B45" t="n">
-        <v>3.175932654325536</v>
+        <v>3.556436283240799</v>
       </c>
       <c r="C45" t="n">
-        <v>1.887821736056595</v>
+        <v>2.161363941011431</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.072815944</v>
+        <v>2.564525999</v>
       </c>
       <c r="B46" t="n">
-        <v>3.260936054896019</v>
+        <v>3.473123441444026</v>
       </c>
       <c r="C46" t="n">
-        <v>2.019203259902389</v>
+        <v>2.126922008613979</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.264871662</v>
+        <v>2.181333048</v>
       </c>
       <c r="B47" t="n">
-        <v>3.226664721746741</v>
+        <v>3.349833444307852</v>
       </c>
       <c r="C47" t="n">
-        <v>1.903390165212949</v>
+        <v>2.002727511362536</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.015678228</v>
+        <v>2.749467172</v>
       </c>
       <c r="B48" t="n">
-        <v>3.165554604936053</v>
+        <v>3.383888667854713</v>
       </c>
       <c r="C48" t="n">
-        <v>1.744754470212501</v>
+        <v>1.997947781563256</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1115,27 +1115,27 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.009047328</v>
+        <v>3.712480746</v>
       </c>
       <c r="B49" t="n">
-        <v>3.099376703891639</v>
+        <v>3.600159651625481</v>
       </c>
       <c r="C49" t="n">
-        <v>1.632485507929175</v>
+        <v>2.190310919154314</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.843338861</v>
+        <v>3.35446666</v>
       </c>
       <c r="B50" t="n">
-        <v>2.993531179713119</v>
+        <v>3.699656701697164</v>
       </c>
       <c r="C50" t="n">
-        <v>1.529290404734118</v>
+        <v>2.274509696169739</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.903228047</v>
+        <v>2.856929145</v>
       </c>
       <c r="B51" t="n">
-        <v>2.921775039523627</v>
+        <v>3.713785118531328</v>
       </c>
       <c r="C51" t="n">
-        <v>1.457771401942991</v>
+        <v>2.208318914703298</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.403032659</v>
+        <v>2.087320941</v>
       </c>
       <c r="B52" t="n">
-        <v>2.955406113359589</v>
+        <v>3.655217713926604</v>
       </c>
       <c r="C52" t="n">
-        <v>1.509445077421759</v>
+        <v>1.917389898517416</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.757170016</v>
+        <v>2.381749246</v>
       </c>
       <c r="B53" t="n">
-        <v>3.048427958719028</v>
+        <v>3.585342383114578</v>
       </c>
       <c r="C53" t="n">
-        <v>1.626322917610638</v>
+        <v>1.825441927084255</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.036606216</v>
+        <v>3.2218373</v>
       </c>
       <c r="B54" t="n">
-        <v>3.17980431917529</v>
+        <v>3.696914719223811</v>
       </c>
       <c r="C54" t="n">
-        <v>1.774640912157232</v>
+        <v>1.920449158517137</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1199,27 +1199,27 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.452761437</v>
+        <v>2.525029409</v>
       </c>
       <c r="B55" t="n">
-        <v>3.409021651539183</v>
+        <v>3.633319013232475</v>
       </c>
       <c r="C55" t="n">
-        <v>1.935641389542706</v>
+        <v>1.870583189262586</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.531578468</v>
+        <v>2.134523104</v>
       </c>
       <c r="B56" t="n">
-        <v>3.625410696716509</v>
+        <v>3.494596297461352</v>
       </c>
       <c r="C56" t="n">
-        <v>2.06295273076877</v>
+        <v>1.762333551093098</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.836644834</v>
+        <v>2.502060768</v>
       </c>
       <c r="B57" t="n">
-        <v>3.621555853317098</v>
+        <v>3.472597297562452</v>
       </c>
       <c r="C57" t="n">
-        <v>2.063792810991558</v>
+        <v>1.733770699306762</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.636729979</v>
+        <v>3.073195927</v>
       </c>
       <c r="B58" t="n">
-        <v>3.649112128069105</v>
+        <v>3.542191648612923</v>
       </c>
       <c r="C58" t="n">
-        <v>1.953858548407704</v>
+        <v>1.85218168241162</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,27 +1255,27 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.731150615</v>
+        <v>3.765389057</v>
       </c>
       <c r="B59" t="n">
-        <v>3.645296083616842</v>
+        <v>3.727251682628605</v>
       </c>
       <c r="C59" t="n">
-        <v>1.929540636197164</v>
+        <v>2.094403628128105</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.002098395</v>
+        <v>2.710074659</v>
       </c>
       <c r="B60" t="n">
-        <v>3.671458575969921</v>
+        <v>3.72509150903072</v>
       </c>
       <c r="C60" t="n">
-        <v>1.989250322379697</v>
+        <v>2.016262449347818</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.282562436</v>
+        <v>1.933698596</v>
       </c>
       <c r="B61" t="n">
-        <v>3.747778722994472</v>
+        <v>3.549356643585428</v>
       </c>
       <c r="C61" t="n">
-        <v>2.093813647288337</v>
+        <v>1.817205387150445</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.563186246</v>
+        <v>2.158563582</v>
       </c>
       <c r="B62" t="n">
-        <v>3.873910099411866</v>
+        <v>3.42126345255093</v>
       </c>
       <c r="C62" t="n">
-        <v>2.224638610241936</v>
+        <v>1.735411347516772</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.831904531</v>
+        <v>1.939912138</v>
       </c>
       <c r="B63" t="n">
-        <v>3.83040494848718</v>
+        <v>3.293864574239</v>
       </c>
       <c r="C63" t="n">
-        <v>2.181195746357497</v>
+        <v>1.607439870548645</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1325,41 +1325,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.406744742</v>
+        <v>1.417135142</v>
       </c>
       <c r="B64" t="n">
-        <v>3.511658460901557</v>
+        <v>3.07670119634232</v>
       </c>
       <c r="C64" t="n">
-        <v>1.860319489902055</v>
+        <v>1.411196091912948</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.690344095</v>
+        <v>2.428824584</v>
       </c>
       <c r="B65" t="n">
-        <v>3.277113947524305</v>
+        <v>3.113035163610367</v>
       </c>
       <c r="C65" t="n">
-        <v>1.696605801127859</v>
+        <v>1.44881254701328</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.079214082</v>
+        <v>3.03582255</v>
       </c>
       <c r="B66" t="n">
-        <v>3.171732277675357</v>
+        <v>3.247939598511037</v>
       </c>
       <c r="C66" t="n">
-        <v>1.638929072163642</v>
+        <v>1.615867741622385</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.297894698</v>
+        <v>1.885340045</v>
       </c>
       <c r="B67" t="n">
-        <v>3.141433856064424</v>
+        <v>3.128222824326509</v>
       </c>
       <c r="C67" t="n">
-        <v>1.626253085742472</v>
+        <v>1.516958977950805</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.206038468</v>
+        <v>1.45672665</v>
       </c>
       <c r="B68" t="n">
-        <v>3.10755367980466</v>
+        <v>2.94568995713569</v>
       </c>
       <c r="C68" t="n">
-        <v>1.589011237983119</v>
+        <v>1.353146033374909</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.869516846</v>
+        <v>1.596858616</v>
       </c>
       <c r="B69" t="n">
-        <v>3.018994180479547</v>
+        <v>2.792080200163917</v>
       </c>
       <c r="C69" t="n">
-        <v>1.486064442912476</v>
+        <v>1.285731981817112</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.35466384</v>
+        <v>1.654124032</v>
       </c>
       <c r="B70" t="n">
-        <v>3.055091633914136</v>
+        <v>2.564536340614476</v>
       </c>
       <c r="C70" t="n">
-        <v>1.490820809202627</v>
+        <v>1.359362986112309</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.740761162</v>
+        <v>1.725477321</v>
       </c>
       <c r="B71" t="n">
-        <v>3.144627726471677</v>
+        <v>2.503038437271655</v>
       </c>
       <c r="C71" t="n">
-        <v>1.588406723612744</v>
+        <v>1.326271936945118</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.305694425</v>
+        <v>1.89569897</v>
       </c>
       <c r="B72" t="n">
-        <v>3.116294339125513</v>
+        <v>2.484365880539634</v>
       </c>
       <c r="C72" t="n">
-        <v>1.592410987739329</v>
+        <v>1.337362005835623</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.021173603</v>
+        <v>1.860195387</v>
       </c>
       <c r="B73" t="n">
-        <v>2.999449064430547</v>
+        <v>2.467774369673883</v>
       </c>
       <c r="C73" t="n">
-        <v>1.575984624226185</v>
+        <v>1.333686092091913</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.872629735</v>
+        <v>1.638875465</v>
       </c>
       <c r="B74" t="n">
-        <v>2.862096100533615</v>
+        <v>2.414106178641331</v>
       </c>
       <c r="C74" t="n">
-        <v>1.547302730403362</v>
+        <v>1.282612367946817</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.270846337</v>
+        <v>1.758251736</v>
       </c>
       <c r="B75" t="n">
-        <v>2.852203999046059</v>
+        <v>2.377768786656227</v>
       </c>
       <c r="C75" t="n">
-        <v>1.58365360228684</v>
+        <v>1.282906742584996</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.638833916</v>
+        <v>1.913635304</v>
       </c>
       <c r="B76" t="n">
-        <v>2.814008005963018</v>
+        <v>2.327586102128012</v>
       </c>
       <c r="C76" t="n">
-        <v>1.790211650581365</v>
+        <v>1.366408444661525</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.376456545</v>
+        <v>1.944960588</v>
       </c>
       <c r="B77" t="n">
-        <v>2.746147829878779</v>
+        <v>2.343413281553019</v>
       </c>
       <c r="C77" t="n">
-        <v>1.887810514639533</v>
+        <v>1.389766592768906</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.388530446</v>
+        <v>1.783240079</v>
       </c>
       <c r="B78" t="n">
-        <v>2.730076922079274</v>
+        <v>2.230538355577766</v>
       </c>
       <c r="C78" t="n">
-        <v>1.932501932923033</v>
+        <v>1.469301574329254</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,27 +1535,27 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.684519458</v>
+        <v>1.421817028</v>
       </c>
       <c r="B79" t="n">
-        <v>2.795082497207622</v>
+        <v>2.085892352696997</v>
       </c>
       <c r="C79" t="n">
-        <v>2.00878837389487</v>
+        <v>1.442706397701167</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.464223637</v>
+        <v>1.41642306</v>
       </c>
       <c r="B80" t="n">
-        <v>2.806350790989372</v>
+        <v>2.012960429158424</v>
       </c>
       <c r="C80" t="n">
-        <v>2.02243536124289</v>
+        <v>1.376487792086885</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.204790114</v>
+        <v>1.466791719</v>
       </c>
       <c r="B81" t="n">
-        <v>2.759010328524459</v>
+        <v>1.954253792385726</v>
       </c>
       <c r="C81" t="n">
-        <v>1.985934637380006</v>
+        <v>1.344021470599635</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.450113613</v>
+        <v>1.352510884</v>
       </c>
       <c r="B82" t="n">
-        <v>2.750915827896416</v>
+        <v>1.991366342153952</v>
       </c>
       <c r="C82" t="n">
-        <v>2.025085590466132</v>
+        <v>1.188258220157236</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.477321458</v>
+        <v>1.602155021</v>
       </c>
       <c r="B83" t="n">
-        <v>2.772427563261611</v>
+        <v>2.040741141418647</v>
       </c>
       <c r="C83" t="n">
-        <v>2.039302155032436</v>
+        <v>1.143820516886131</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1605,27 +1605,27 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.246021863</v>
+        <v>2.283117643</v>
       </c>
       <c r="B84" t="n">
-        <v>2.755754221643563</v>
+        <v>2.186884276506512</v>
       </c>
       <c r="C84" t="n">
-        <v>1.992038297613283</v>
+        <v>1.274012109837104</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.606103379</v>
+        <v>2.055104952</v>
       </c>
       <c r="B85" t="n">
-        <v>2.810638135879047</v>
+        <v>2.2908003438335</v>
       </c>
       <c r="C85" t="n">
-        <v>2.030037231798623</v>
+        <v>1.299958746981211</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1633,41 +1633,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3.01746007</v>
+        <v>1.542306221</v>
       </c>
       <c r="B86" t="n">
-        <v>2.92677866911862</v>
+        <v>2.29402657879585</v>
       </c>
       <c r="C86" t="n">
-        <v>2.152745654406357</v>
+        <v>1.19550318166984</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.405437381</v>
+        <v>0.783042373</v>
       </c>
       <c r="B87" t="n">
-        <v>2.885272218489738</v>
+        <v>2.145097587634961</v>
       </c>
       <c r="C87" t="n">
-        <v>2.140522192481384</v>
+        <v>0.959743168155834</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.13879304</v>
+        <v>0.965546412</v>
       </c>
       <c r="B88" t="n">
-        <v>2.779221862796365</v>
+        <v>2.098540117162664</v>
       </c>
       <c r="C88" t="n">
-        <v>2.096930881426059</v>
+        <v>0.7715510514001439</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1675,27 +1675,27 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.341863252</v>
+        <v>2.428854778</v>
       </c>
       <c r="B89" t="n">
-        <v>2.760268122422126</v>
+        <v>2.300202968717485</v>
       </c>
       <c r="C89" t="n">
-        <v>2.077399373641732</v>
+        <v>0.9674118785111314</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.22230147</v>
+        <v>1.441650436</v>
       </c>
       <c r="B90" t="n">
-        <v>2.708141912406546</v>
+        <v>2.462501450064563</v>
       </c>
       <c r="C90" t="n">
-        <v>2.050912672258115</v>
+        <v>0.7282506019360557</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1703,27 +1703,27 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.011407656</v>
+        <v>-0.150936023</v>
       </c>
       <c r="B91" t="n">
-        <v>2.630062997432484</v>
+        <v>2.200065124069321</v>
       </c>
       <c r="C91" t="n">
-        <v>1.981743732419896</v>
+        <v>0.2921621070059772</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.057035879</v>
+        <v>1.419251725</v>
       </c>
       <c r="B92" t="n">
-        <v>2.593558072608147</v>
+        <v>2.242482884350316</v>
       </c>
       <c r="C92" t="n">
-        <v>1.918701662722674</v>
+        <v>0.3189995906150314</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.001622601</v>
+        <v>2.215328705</v>
       </c>
       <c r="B93" t="n">
-        <v>2.57630566978929</v>
+        <v>2.445003404530454</v>
       </c>
       <c r="C93" t="n">
-        <v>1.834151158751761</v>
+        <v>0.4903140578957219</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.788057408</v>
+        <v>1.799754049</v>
       </c>
       <c r="B94" t="n">
-        <v>2.551742877752504</v>
+        <v>2.505661702220747</v>
       </c>
       <c r="C94" t="n">
-        <v>1.691845548118251</v>
+        <v>0.5624938874492247</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.731726121</v>
+        <v>1.882084887</v>
       </c>
       <c r="B95" t="n">
-        <v>2.503602885771022</v>
+        <v>2.821113338527151</v>
       </c>
       <c r="C95" t="n">
-        <v>1.583958303204338</v>
+        <v>0.3862450881169961</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.725052878</v>
+        <v>2.146261779</v>
       </c>
       <c r="B96" t="n">
-        <v>2.439857342433859</v>
+        <v>2.929629851730196</v>
       </c>
       <c r="C96" t="n">
-        <v>1.520212759867174</v>
+        <v>0.4947616013200413</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1787,72 +1787,72 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.319828485</v>
+        <v>1.849355674</v>
       </c>
       <c r="B97" t="n">
-        <v>2.307816029138088</v>
+        <v>2.957061841238815</v>
       </c>
       <c r="C97" t="n">
-        <v>1.388171446571403</v>
+        <v>0.5221935908286601</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.885072248</v>
+        <v>1.778640865</v>
       </c>
       <c r="B98" t="n">
-        <v>2.115231731090518</v>
+        <v>2.964864471035172</v>
       </c>
       <c r="C98" t="n">
-        <v>1.195587148523833</v>
+        <v>0.5299962206250171</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.396877437</v>
+        <v>2.117224592</v>
       </c>
       <c r="B99" t="n">
-        <v>1.863525330448968</v>
+        <v>3.038823320292693</v>
       </c>
       <c r="C99" t="n">
-        <v>0.943880747882283</v>
+        <v>0.603955069882538</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-1.72207763</v>
+        <v>2.466016953</v>
       </c>
       <c r="B100" t="n">
-        <v>1.23836919645666</v>
+        <v>3.167748871907998</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3187246138899749</v>
+        <v>0.7328806214978432</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-4.615643819</v>
+        <v>2.819658416</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1595310514022332</v>
+        <v>3.341617605802831</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.7601135311644516</v>
+        <v>0.9067493553926766</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output3.xlsx
+++ b/output3.xlsx
@@ -474,13 +474,13 @@
         <v>3.253302451</v>
       </c>
       <c r="B3" t="n">
-        <v>5.403593167714922</v>
+        <v>13.24320288282604</v>
       </c>
       <c r="C3" t="n">
-        <v>3.192254165285078</v>
+        <v>11.03186388039619</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2.550621089</v>
       </c>
       <c r="B4" t="n">
-        <v>3.947507686464922</v>
+        <v>9.455236064885085</v>
       </c>
       <c r="C4" t="n">
-        <v>1.736168684035078</v>
+        <v>7.243897062455241</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2.316362988</v>
       </c>
       <c r="B5" t="n">
-        <v>3.523737366102018</v>
+        <v>7.403039134046965</v>
       </c>
       <c r="C5" t="n">
-        <v>1.312398363672175</v>
+        <v>5.191700131617122</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2.52768641</v>
       </c>
       <c r="B6" t="n">
-        <v>3.61157273878864</v>
+        <v>6.227232186557781</v>
       </c>
       <c r="C6" t="n">
-        <v>1.400233736358796</v>
+        <v>4.015893184127937</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2.985252252</v>
       </c>
       <c r="B7" t="n">
-        <v>3.9951747029582</v>
+        <v>5.593734122380797</v>
       </c>
       <c r="C7" t="n">
-        <v>1.783835700528356</v>
+        <v>3.382395119950953</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         <v>3.549408244</v>
       </c>
       <c r="B8" t="n">
-        <v>4.52313092596185</v>
+        <v>5.30919289700115</v>
       </c>
       <c r="C8" t="n">
-        <v>2.311791923532006</v>
+        <v>3.097853894571307</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>3.690254995</v>
       </c>
       <c r="B9" t="n">
-        <v>4.612645187152016</v>
+        <v>5.038570963922058</v>
       </c>
       <c r="C9" t="n">
-        <v>2.658752961630586</v>
+        <v>3.084678738400627</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -572,10 +572,10 @@
         <v>2.776038904</v>
       </c>
       <c r="B10" t="n">
-        <v>4.05837903645272</v>
+        <v>4.912630202109463</v>
       </c>
       <c r="C10" t="n">
-        <v>1.837559318526727</v>
+        <v>2.69181048418347</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>3.033211337</v>
       </c>
       <c r="B11" t="n">
-        <v>4.187328644133695</v>
+        <v>4.79528777677238</v>
       </c>
       <c r="C11" t="n">
-        <v>1.844997235892608</v>
+        <v>2.452956368531293</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
